--- a/data_year/zb/文化/广播电视节目制作时间.xlsx
+++ b/data_year/zb/文化/广播电视节目制作时间.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O22"/>
+  <dimension ref="A1:O13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -508,966 +508,589 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2000年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>821031</v>
+        <v>1955180</v>
       </c>
       <c r="C2" t="n">
-        <v>105257</v>
-      </c>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
+        <v>640857</v>
+      </c>
+      <c r="D2" t="n">
+        <v>843474</v>
+      </c>
+      <c r="E2" t="n">
+        <v>354188</v>
+      </c>
+      <c r="F2" t="n">
+        <v>775931</v>
+      </c>
+      <c r="G2" t="n">
+        <v>526839</v>
+      </c>
+      <c r="H2" t="n">
+        <v>80181</v>
+      </c>
       <c r="I2" t="n">
-        <v>4043046</v>
-      </c>
-      <c r="J2" t="inlineStr"/>
+        <v>6814226</v>
+      </c>
+      <c r="J2" t="n">
+        <v>93536.25</v>
+      </c>
       <c r="K2" t="n">
-        <v>449582</v>
+        <v>1216632</v>
       </c>
       <c r="L2" t="n">
-        <v>147239</v>
+        <v>719680</v>
       </c>
       <c r="M2" t="n">
-        <v>871081</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
-      <c r="O2" t="inlineStr"/>
+        <v>2742949</v>
+      </c>
+      <c r="N2" t="n">
+        <v>1942828</v>
+      </c>
+      <c r="O2" t="n">
+        <v>407849</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2001年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1578183</v>
+        <v>2016386.27</v>
       </c>
       <c r="C3" t="n">
-        <v>379490</v>
-      </c>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
+        <v>775564.6</v>
+      </c>
+      <c r="D3" t="n">
+        <v>833698.65</v>
+      </c>
+      <c r="E3" t="n">
+        <v>372515</v>
+      </c>
+      <c r="F3" t="n">
+        <v>766462.83</v>
+      </c>
+      <c r="G3" t="n">
+        <v>508294</v>
+      </c>
+      <c r="H3" t="n">
+        <v>119476.77</v>
+      </c>
       <c r="I3" t="n">
-        <v>4159478</v>
-      </c>
-      <c r="J3" t="inlineStr"/>
+        <v>6936959.8</v>
+      </c>
+      <c r="J3" t="n">
+        <v>75451.73</v>
+      </c>
       <c r="K3" t="n">
-        <v>483631</v>
+        <v>1295018.87</v>
       </c>
       <c r="L3" t="n">
-        <v>235336</v>
+        <v>802376</v>
       </c>
       <c r="M3" t="n">
-        <v>1578755</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
-      <c r="O3" t="inlineStr"/>
+        <v>2950490.2</v>
+      </c>
+      <c r="N3" t="n">
+        <v>1905916.42</v>
+      </c>
+      <c r="O3" t="n">
+        <v>416288.8</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2002年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1703554</v>
+        <v>2044072.83333333</v>
       </c>
       <c r="C4" t="n">
-        <v>379240</v>
-      </c>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
+        <v>892521.1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>900789.783333333</v>
+      </c>
+      <c r="E4" t="n">
+        <v>455160.983333333</v>
+      </c>
+      <c r="F4" t="n">
+        <v>796009.45</v>
+      </c>
+      <c r="G4" t="n">
+        <v>555192.15</v>
+      </c>
+      <c r="H4" t="n">
+        <v>140492.85</v>
+      </c>
       <c r="I4" t="n">
-        <v>4414043</v>
-      </c>
-      <c r="J4" t="inlineStr"/>
+        <v>7188245.06666667</v>
+      </c>
+      <c r="J4" t="n">
+        <v>163347.7</v>
+      </c>
       <c r="K4" t="n">
-        <v>531278</v>
+        <v>1333084.08333333</v>
       </c>
       <c r="L4" t="n">
-        <v>256883</v>
+        <v>886904.883333333</v>
       </c>
       <c r="M4" t="n">
-        <v>1680909</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
-      <c r="O4" t="inlineStr"/>
+        <v>3436300.96666667</v>
+      </c>
+      <c r="N4" t="n">
+        <v>1973796.06666667</v>
+      </c>
+      <c r="O4" t="n">
+        <v>483174.15</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2003年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1861943</v>
+        <v>2091787</v>
       </c>
       <c r="C5" t="n">
-        <v>433083</v>
-      </c>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr"/>
-      <c r="H5" t="inlineStr"/>
+        <v>854124.2</v>
+      </c>
+      <c r="D5" t="n">
+        <v>962502</v>
+      </c>
+      <c r="E5" t="n">
+        <v>468035.483333333</v>
+      </c>
+      <c r="F5" t="n">
+        <v>785278</v>
+      </c>
+      <c r="G5" t="n">
+        <v>542823.366666667</v>
+      </c>
+      <c r="H5" t="n">
+        <v>178163</v>
+      </c>
       <c r="I5" t="n">
-        <v>5023387</v>
-      </c>
-      <c r="J5" t="inlineStr"/>
+        <v>7391245</v>
+      </c>
+      <c r="J5" t="n">
+        <v>201117.216666667</v>
+      </c>
       <c r="K5" t="n">
-        <v>628090</v>
+        <v>1397353</v>
       </c>
       <c r="L5" t="n">
-        <v>280273</v>
+        <v>866756.466666667</v>
       </c>
       <c r="M5" t="n">
-        <v>1791110</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
-      <c r="O5" t="inlineStr"/>
+        <v>3397834.01666667</v>
+      </c>
+      <c r="N5" t="n">
+        <v>1976162</v>
+      </c>
+      <c r="O5" t="n">
+        <v>464977.283333333</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2004年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1579675</v>
+        <v>2120516.66666667</v>
       </c>
       <c r="C6" t="n">
-        <v>486311</v>
+        <v>848275.716666667</v>
       </c>
       <c r="D6" t="n">
-        <v>592424</v>
+        <v>1069277.46666667</v>
       </c>
       <c r="E6" t="n">
-        <v>241247</v>
+        <v>415441.283333333</v>
       </c>
       <c r="F6" t="n">
-        <v>564207</v>
+        <v>808147.55</v>
       </c>
       <c r="G6" t="n">
-        <v>426553</v>
+        <v>510274.85</v>
       </c>
       <c r="H6" t="n">
-        <v>66053</v>
+        <v>185405.383333333</v>
       </c>
       <c r="I6" t="n">
-        <v>5267457</v>
+        <v>7647267</v>
       </c>
       <c r="J6" t="n">
-        <v>167511</v>
+        <v>116750.083333333</v>
       </c>
       <c r="K6" t="n">
-        <v>858579</v>
+        <v>1443463.55</v>
       </c>
       <c r="L6" t="n">
-        <v>474218</v>
+        <v>918296.2</v>
       </c>
       <c r="M6" t="n">
-        <v>2117158</v>
+        <v>3277394</v>
       </c>
       <c r="N6" t="n">
-        <v>1606519</v>
+        <v>2020456.25</v>
       </c>
       <c r="O6" t="n">
-        <v>321318</v>
+        <v>468355.383333333</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1822621</v>
+        <v>2072348.483333</v>
       </c>
       <c r="C7" t="n">
-        <v>525528</v>
+        <v>930283.083333</v>
       </c>
       <c r="D7" t="n">
-        <v>565909</v>
+        <v>1195064.633333</v>
       </c>
       <c r="E7" t="n">
-        <v>289364</v>
+        <v>497131.483333</v>
       </c>
       <c r="F7" t="n">
-        <v>671071</v>
+        <v>752705.0666669999</v>
       </c>
       <c r="G7" t="n">
-        <v>524892</v>
+        <v>481972.916667</v>
       </c>
       <c r="H7" t="n">
-        <v>75456</v>
+        <v>183123.8</v>
       </c>
       <c r="I7" t="n">
-        <v>6139227</v>
+        <v>7718163</v>
       </c>
       <c r="J7" t="n">
-        <v>193771</v>
+        <v>120603.516667</v>
       </c>
       <c r="K7" t="n">
-        <v>1066880</v>
+        <v>1436129.383333</v>
       </c>
       <c r="L7" t="n">
-        <v>637956</v>
+        <v>978800.983333</v>
       </c>
       <c r="M7" t="n">
-        <v>2553861</v>
+        <v>3520190</v>
       </c>
       <c r="N7" t="n">
-        <v>1937290</v>
+        <v>2078791.35</v>
       </c>
       <c r="O7" t="n">
-        <v>382350</v>
+        <v>511398.166667</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1728485</v>
+        <v>2096407</v>
       </c>
       <c r="C8" t="n">
-        <v>540369</v>
+        <v>899782</v>
       </c>
       <c r="D8" t="n">
-        <v>671142</v>
+        <v>1228720</v>
       </c>
       <c r="E8" t="n">
-        <v>363442</v>
+        <v>530698</v>
       </c>
       <c r="F8" t="n">
-        <v>691610</v>
+        <v>761747</v>
       </c>
       <c r="G8" t="n">
-        <v>589067</v>
+        <v>483620</v>
       </c>
       <c r="H8" t="n">
-        <v>59225</v>
+        <v>172558</v>
       </c>
       <c r="I8" t="n">
-        <v>6192339</v>
+        <v>7820296</v>
       </c>
       <c r="J8" t="n">
-        <v>71377</v>
+        <v>119102</v>
       </c>
       <c r="K8" t="n">
-        <v>1055077</v>
+        <v>1457302</v>
       </c>
       <c r="L8" t="n">
-        <v>646337</v>
+        <v>989934</v>
       </c>
       <c r="M8" t="n">
-        <v>2618034</v>
+        <v>3507217</v>
       </c>
       <c r="N8" t="n">
-        <v>1986800</v>
+        <v>2103561</v>
       </c>
       <c r="O8" t="n">
-        <v>407442</v>
+        <v>484081</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1798165</v>
+        <v>2144051.3</v>
       </c>
       <c r="C9" t="n">
-        <v>545922</v>
+        <v>909003.48</v>
       </c>
       <c r="D9" t="n">
-        <v>777737</v>
+        <v>1214427.97</v>
       </c>
       <c r="E9" t="n">
-        <v>342148</v>
+        <v>495416.5</v>
       </c>
       <c r="F9" t="n">
-        <v>722411</v>
+        <v>766344.33</v>
       </c>
       <c r="G9" t="n">
-        <v>585277</v>
+        <v>534910.5699999999</v>
       </c>
       <c r="H9" t="n">
-        <v>76889</v>
+        <v>231143.35</v>
       </c>
       <c r="I9" t="n">
-        <v>6332506</v>
+        <v>7888253.93</v>
       </c>
       <c r="J9" t="n">
-        <v>96397</v>
+        <v>153062.22</v>
       </c>
       <c r="K9" t="n">
-        <v>1062423</v>
+        <v>1426058.98</v>
       </c>
       <c r="L9" t="n">
-        <v>595190</v>
+        <v>1085109.67</v>
       </c>
       <c r="M9" t="n">
-        <v>2553283</v>
+        <v>3651775.07</v>
       </c>
       <c r="N9" t="n">
-        <v>1894881</v>
+        <v>2106228</v>
       </c>
       <c r="O9" t="n">
-        <v>388349</v>
+        <v>474272.63</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1837471</v>
+        <v>2166880</v>
       </c>
       <c r="C10" t="n">
-        <v>622182</v>
+        <v>897248</v>
       </c>
       <c r="D10" t="n">
-        <v>795373</v>
+        <v>1371241</v>
       </c>
       <c r="E10" t="n">
-        <v>330910</v>
+        <v>571626</v>
       </c>
       <c r="F10" t="n">
-        <v>737223</v>
+        <v>749168</v>
       </c>
       <c r="G10" t="n">
-        <v>558914</v>
+        <v>472188</v>
       </c>
       <c r="H10" t="n">
-        <v>72629</v>
+        <v>218013</v>
       </c>
       <c r="I10" t="n">
-        <v>6494035</v>
+        <v>8017573</v>
       </c>
       <c r="J10" t="n">
-        <v>58616</v>
+        <v>117810</v>
       </c>
       <c r="K10" t="n">
-        <v>1116588</v>
+        <v>1432069</v>
       </c>
       <c r="L10" t="n">
-        <v>678820</v>
+        <v>1079491</v>
       </c>
       <c r="M10" t="n">
-        <v>2641949</v>
+        <v>3577444</v>
       </c>
       <c r="N10" t="n">
-        <v>1934751</v>
+        <v>2080201</v>
       </c>
       <c r="O10" t="n">
-        <v>392507</v>
+        <v>439081</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2019年</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1900995</v>
+        <v>2179937</v>
       </c>
       <c r="C11" t="n">
-        <v>611352</v>
+        <v>870307</v>
       </c>
       <c r="D11" t="n">
-        <v>817807</v>
+        <v>1481473</v>
       </c>
       <c r="E11" t="n">
-        <v>352701</v>
+        <v>541898</v>
       </c>
       <c r="F11" t="n">
-        <v>782757</v>
+        <v>719208</v>
       </c>
       <c r="G11" t="n">
-        <v>544038</v>
+        <v>437437</v>
       </c>
       <c r="H11" t="n">
-        <v>90735</v>
+        <v>224078</v>
       </c>
       <c r="I11" t="n">
-        <v>6716500</v>
+        <v>8018667</v>
       </c>
       <c r="J11" t="n">
-        <v>66899</v>
+        <v>120295</v>
       </c>
       <c r="K11" t="n">
-        <v>1166848</v>
+        <v>1418838</v>
       </c>
       <c r="L11" t="n">
-        <v>675885</v>
+        <v>1086112</v>
       </c>
       <c r="M11" t="n">
-        <v>2653552</v>
+        <v>3455809</v>
       </c>
       <c r="N11" t="n">
-        <v>1957358</v>
+        <v>1995132</v>
       </c>
       <c r="O11" t="n">
-        <v>402677</v>
+        <v>399761</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2020年</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1955180</v>
+        <v>2241754.2</v>
       </c>
       <c r="C12" t="n">
-        <v>640857</v>
+        <v>899825.08</v>
       </c>
       <c r="D12" t="n">
-        <v>843474</v>
+        <v>1635599.98</v>
       </c>
       <c r="E12" t="n">
-        <v>354188</v>
+        <v>458127.85</v>
       </c>
       <c r="F12" t="n">
-        <v>775931</v>
+        <v>684013.85</v>
       </c>
       <c r="G12" t="n">
-        <v>526839</v>
+        <v>389655.2</v>
       </c>
       <c r="H12" t="n">
-        <v>80181</v>
+        <v>218580.57</v>
       </c>
       <c r="I12" t="n">
-        <v>6814226</v>
+        <v>8210448.13</v>
       </c>
       <c r="J12" t="n">
-        <v>93536.25</v>
+        <v>95402.58</v>
       </c>
       <c r="K12" t="n">
-        <v>1216632</v>
+        <v>1452701.13</v>
       </c>
       <c r="L12" t="n">
-        <v>719680</v>
+        <v>1097542.68</v>
       </c>
       <c r="M12" t="n">
-        <v>2742949</v>
+        <v>3282439.67</v>
       </c>
       <c r="N12" t="n">
-        <v>1942828</v>
+        <v>1977798.4</v>
       </c>
       <c r="O12" t="n">
-        <v>407849</v>
+        <v>341886.28</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
+          <t>2021年</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>2016386.27</v>
+        <v>2226132.63</v>
       </c>
       <c r="C13" t="n">
-        <v>775564.6</v>
+        <v>792713.7</v>
       </c>
       <c r="D13" t="n">
-        <v>833698.65</v>
+        <v>1569043.5</v>
       </c>
       <c r="E13" t="n">
-        <v>372515</v>
+        <v>418358.2</v>
       </c>
       <c r="F13" t="n">
-        <v>766462.83</v>
+        <v>712182.67</v>
       </c>
       <c r="G13" t="n">
-        <v>508294</v>
+        <v>379451.55</v>
       </c>
       <c r="H13" t="n">
-        <v>119476.77</v>
+        <v>223858.2</v>
       </c>
       <c r="I13" t="n">
-        <v>6936959.8</v>
+        <v>8127066.05</v>
       </c>
       <c r="J13" t="n">
-        <v>75451.73</v>
+        <v>75241.33</v>
       </c>
       <c r="K13" t="n">
-        <v>1295018.87</v>
+        <v>1457219.33</v>
       </c>
       <c r="L13" t="n">
-        <v>802376</v>
+        <v>1093688.45</v>
       </c>
       <c r="M13" t="n">
-        <v>2950490.2</v>
+        <v>3059642.05</v>
       </c>
       <c r="N13" t="n">
-        <v>1905916.42</v>
+        <v>1938629.72</v>
       </c>
       <c r="O13" t="n">
-        <v>416288.8</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>2012年</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>2044072.83333333</v>
-      </c>
-      <c r="C14" t="n">
-        <v>892521.1</v>
-      </c>
-      <c r="D14" t="n">
-        <v>900789.783333333</v>
-      </c>
-      <c r="E14" t="n">
-        <v>455160.983333333</v>
-      </c>
-      <c r="F14" t="n">
-        <v>796009.45</v>
-      </c>
-      <c r="G14" t="n">
-        <v>555192.15</v>
-      </c>
-      <c r="H14" t="n">
-        <v>140492.85</v>
-      </c>
-      <c r="I14" t="n">
-        <v>7188245.06666667</v>
-      </c>
-      <c r="J14" t="n">
-        <v>163347.7</v>
-      </c>
-      <c r="K14" t="n">
-        <v>1333084.08333333</v>
-      </c>
-      <c r="L14" t="n">
-        <v>886904.883333333</v>
-      </c>
-      <c r="M14" t="n">
-        <v>3436300.96666667</v>
-      </c>
-      <c r="N14" t="n">
-        <v>1973796.06666667</v>
-      </c>
-      <c r="O14" t="n">
-        <v>483174.15</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2013年</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>2091787</v>
-      </c>
-      <c r="C15" t="n">
-        <v>854124.2</v>
-      </c>
-      <c r="D15" t="n">
-        <v>962502</v>
-      </c>
-      <c r="E15" t="n">
-        <v>468035.483333333</v>
-      </c>
-      <c r="F15" t="n">
-        <v>785278</v>
-      </c>
-      <c r="G15" t="n">
-        <v>542823.366666667</v>
-      </c>
-      <c r="H15" t="n">
-        <v>178163</v>
-      </c>
-      <c r="I15" t="n">
-        <v>7391245</v>
-      </c>
-      <c r="J15" t="n">
-        <v>201117.216666667</v>
-      </c>
-      <c r="K15" t="n">
-        <v>1397353</v>
-      </c>
-      <c r="L15" t="n">
-        <v>866756.466666667</v>
-      </c>
-      <c r="M15" t="n">
-        <v>3397834.01666667</v>
-      </c>
-      <c r="N15" t="n">
-        <v>1976162</v>
-      </c>
-      <c r="O15" t="n">
-        <v>464977.283333333</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2014年</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>2120516.66666667</v>
-      </c>
-      <c r="C16" t="n">
-        <v>848275.716666667</v>
-      </c>
-      <c r="D16" t="n">
-        <v>1069277.46666667</v>
-      </c>
-      <c r="E16" t="n">
-        <v>415441.283333333</v>
-      </c>
-      <c r="F16" t="n">
-        <v>808147.55</v>
-      </c>
-      <c r="G16" t="n">
-        <v>510274.85</v>
-      </c>
-      <c r="H16" t="n">
-        <v>185405.383333333</v>
-      </c>
-      <c r="I16" t="n">
-        <v>7647267</v>
-      </c>
-      <c r="J16" t="n">
-        <v>116750.083333333</v>
-      </c>
-      <c r="K16" t="n">
-        <v>1443463.55</v>
-      </c>
-      <c r="L16" t="n">
-        <v>918296.2</v>
-      </c>
-      <c r="M16" t="n">
-        <v>3277394</v>
-      </c>
-      <c r="N16" t="n">
-        <v>2020456.25</v>
-      </c>
-      <c r="O16" t="n">
-        <v>468355.383333333</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>2072348.483333</v>
-      </c>
-      <c r="C17" t="n">
-        <v>930283.083333</v>
-      </c>
-      <c r="D17" t="n">
-        <v>1195064.633333</v>
-      </c>
-      <c r="E17" t="n">
-        <v>497131.483333</v>
-      </c>
-      <c r="F17" t="n">
-        <v>752705.0666669999</v>
-      </c>
-      <c r="G17" t="n">
-        <v>481972.916667</v>
-      </c>
-      <c r="H17" t="n">
-        <v>183123.8</v>
-      </c>
-      <c r="I17" t="n">
-        <v>7718163</v>
-      </c>
-      <c r="J17" t="n">
-        <v>120603.516667</v>
-      </c>
-      <c r="K17" t="n">
-        <v>1436129.383333</v>
-      </c>
-      <c r="L17" t="n">
-        <v>978800.983333</v>
-      </c>
-      <c r="M17" t="n">
-        <v>3520190</v>
-      </c>
-      <c r="N17" t="n">
-        <v>2078791.35</v>
-      </c>
-      <c r="O17" t="n">
-        <v>511398.166667</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>2016年</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>2096407</v>
-      </c>
-      <c r="C18" t="n">
-        <v>899782</v>
-      </c>
-      <c r="D18" t="n">
-        <v>1228720</v>
-      </c>
-      <c r="E18" t="n">
-        <v>530698</v>
-      </c>
-      <c r="F18" t="n">
-        <v>761747</v>
-      </c>
-      <c r="G18" t="n">
-        <v>483620</v>
-      </c>
-      <c r="H18" t="n">
-        <v>172558</v>
-      </c>
-      <c r="I18" t="n">
-        <v>7820296</v>
-      </c>
-      <c r="J18" t="n">
-        <v>119102</v>
-      </c>
-      <c r="K18" t="n">
-        <v>1457302</v>
-      </c>
-      <c r="L18" t="n">
-        <v>989934</v>
-      </c>
-      <c r="M18" t="n">
-        <v>3507217</v>
-      </c>
-      <c r="N18" t="n">
-        <v>2103561</v>
-      </c>
-      <c r="O18" t="n">
-        <v>484081</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>2144051.3</v>
-      </c>
-      <c r="C19" t="n">
-        <v>909003.48</v>
-      </c>
-      <c r="D19" t="n">
-        <v>1214427.97</v>
-      </c>
-      <c r="E19" t="n">
-        <v>495416.5</v>
-      </c>
-      <c r="F19" t="n">
-        <v>766344.33</v>
-      </c>
-      <c r="G19" t="n">
-        <v>534910.5699999999</v>
-      </c>
-      <c r="H19" t="n">
-        <v>231143.35</v>
-      </c>
-      <c r="I19" t="n">
-        <v>7888253.93</v>
-      </c>
-      <c r="J19" t="n">
-        <v>153062.22</v>
-      </c>
-      <c r="K19" t="n">
-        <v>1426058.98</v>
-      </c>
-      <c r="L19" t="n">
-        <v>1085109.67</v>
-      </c>
-      <c r="M19" t="n">
-        <v>3651775.07</v>
-      </c>
-      <c r="N19" t="n">
-        <v>2106228</v>
-      </c>
-      <c r="O19" t="n">
-        <v>474272.63</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>2018年</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>2166880</v>
-      </c>
-      <c r="C20" t="n">
-        <v>897248</v>
-      </c>
-      <c r="D20" t="n">
-        <v>1371241</v>
-      </c>
-      <c r="E20" t="n">
-        <v>571626</v>
-      </c>
-      <c r="F20" t="n">
-        <v>749168</v>
-      </c>
-      <c r="G20" t="n">
-        <v>472188</v>
-      </c>
-      <c r="H20" t="n">
-        <v>218013</v>
-      </c>
-      <c r="I20" t="n">
-        <v>8017573</v>
-      </c>
-      <c r="J20" t="n">
-        <v>117810</v>
-      </c>
-      <c r="K20" t="n">
-        <v>1432069</v>
-      </c>
-      <c r="L20" t="n">
-        <v>1079491</v>
-      </c>
-      <c r="M20" t="n">
-        <v>3577444</v>
-      </c>
-      <c r="N20" t="n">
-        <v>2080201</v>
-      </c>
-      <c r="O20" t="n">
-        <v>439081</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>2179937</v>
-      </c>
-      <c r="C21" t="n">
-        <v>870307</v>
-      </c>
-      <c r="D21" t="n">
-        <v>1481473</v>
-      </c>
-      <c r="E21" t="n">
-        <v>541898</v>
-      </c>
-      <c r="F21" t="n">
-        <v>719208</v>
-      </c>
-      <c r="G21" t="n">
-        <v>437437</v>
-      </c>
-      <c r="H21" t="n">
-        <v>224078</v>
-      </c>
-      <c r="I21" t="n">
-        <v>8018667</v>
-      </c>
-      <c r="J21" t="n">
-        <v>120295</v>
-      </c>
-      <c r="K21" t="n">
-        <v>1418838</v>
-      </c>
-      <c r="L21" t="n">
-        <v>1086112</v>
-      </c>
-      <c r="M21" t="n">
-        <v>3455809</v>
-      </c>
-      <c r="N21" t="n">
-        <v>1995132</v>
-      </c>
-      <c r="O21" t="n">
-        <v>399761</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>2020年</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>2241754.2</v>
-      </c>
-      <c r="C22" t="n">
-        <v>899825.08</v>
-      </c>
-      <c r="D22" t="n">
-        <v>1635599.98</v>
-      </c>
-      <c r="E22" t="n">
-        <v>458127.85</v>
-      </c>
-      <c r="F22" t="n">
-        <v>684013.85</v>
-      </c>
-      <c r="G22" t="n">
-        <v>389655.2</v>
-      </c>
-      <c r="H22" t="n">
-        <v>218580.57</v>
-      </c>
-      <c r="I22" t="n">
-        <v>8210448.13</v>
-      </c>
-      <c r="J22" t="n">
-        <v>95402.58</v>
-      </c>
-      <c r="K22" t="n">
-        <v>1452701.13</v>
-      </c>
-      <c r="L22" t="n">
-        <v>1097542.68</v>
-      </c>
-      <c r="M22" t="n">
-        <v>3282439.67</v>
-      </c>
-      <c r="N22" t="n">
-        <v>1977798.4</v>
-      </c>
-      <c r="O22" t="n">
-        <v>341886.28</v>
+        <v>300188.82</v>
       </c>
     </row>
   </sheetData>
